--- a/BI_instituicoes_com_emails_confirmados.xlsx
+++ b/BI_instituicoes_com_emails_confirmados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24F7AE4-4A6B-49A0-AB35-D913F08A6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="762">
   <si>
     <t>Cidade</t>
   </si>
@@ -1448,9 +1454,6 @@
   </si>
   <si>
     <t>Parque Tecnológico</t>
-  </si>
-  <si>
-    <t>Instituto Privado</t>
   </si>
   <si>
     <t>Embrapa - Trigo</t>
@@ -2308,8 +2311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2380,18 +2383,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2429,7 +2440,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2463,6 +2474,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2497,9 +2509,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2672,14 +2685,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2719,13 +2741,13 @@
         <v>317</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2739,13 +2761,13 @@
         <v>318</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2759,13 +2781,13 @@
         <v>319</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2779,13 +2801,13 @@
         <v>320</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2799,13 +2821,13 @@
         <v>321</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2819,13 +2841,13 @@
         <v>322</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2839,13 +2861,13 @@
         <v>323</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H8" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2859,13 +2881,13 @@
         <v>324</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2879,10 +2901,10 @@
         <v>325</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2896,10 +2918,10 @@
         <v>326</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2913,13 +2935,13 @@
         <v>327</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H12" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2933,10 +2955,10 @@
         <v>328</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2950,13 +2972,13 @@
         <v>329</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2970,10 +2992,10 @@
         <v>330</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2987,13 +3009,13 @@
         <v>331</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H16" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3007,13 +3029,13 @@
         <v>332</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H17" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3027,13 +3049,13 @@
         <v>333</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3047,13 +3069,13 @@
         <v>334</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H19" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3067,13 +3089,13 @@
         <v>335</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3087,13 +3109,13 @@
         <v>336</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H21" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3107,13 +3129,13 @@
         <v>337</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H22" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3127,13 +3149,13 @@
         <v>338</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H23" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3147,13 +3169,13 @@
         <v>339</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H24" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3167,13 +3189,13 @@
         <v>340</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H25" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3187,13 +3209,13 @@
         <v>341</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H26" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3207,10 +3229,10 @@
         <v>342</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3224,13 +3246,13 @@
         <v>343</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H28" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3244,10 +3266,10 @@
         <v>344</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3261,10 +3283,10 @@
         <v>345</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3278,13 +3300,13 @@
         <v>346</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H31" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3298,10 +3320,10 @@
         <v>347</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3315,13 +3337,13 @@
         <v>348</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H33" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3335,10 +3357,10 @@
         <v>349</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3352,13 +3374,13 @@
         <v>350</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H35" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3372,10 +3394,10 @@
         <v>351</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3389,13 +3411,13 @@
         <v>352</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H37" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3409,10 +3431,10 @@
         <v>353</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3426,13 +3448,13 @@
         <v>354</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H39" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -3446,10 +3468,10 @@
         <v>355</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3463,13 +3485,13 @@
         <v>356</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H41" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -3483,13 +3505,13 @@
         <v>357</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H42" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3503,10 +3525,10 @@
         <v>358</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3520,10 +3542,10 @@
         <v>359</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -3537,13 +3559,13 @@
         <v>360</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H45" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3557,10 +3579,10 @@
         <v>361</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3574,10 +3596,10 @@
         <v>362</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -3591,13 +3613,13 @@
         <v>363</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H48" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3611,13 +3633,13 @@
         <v>364</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H49" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3631,13 +3653,13 @@
         <v>365</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H50" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -3651,13 +3673,13 @@
         <v>366</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H51" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3671,10 +3693,10 @@
         <v>367</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -3688,10 +3710,10 @@
         <v>368</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3705,10 +3727,10 @@
         <v>369</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -3722,10 +3744,10 @@
         <v>370</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3739,10 +3761,10 @@
         <v>371</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3756,13 +3778,13 @@
         <v>372</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H57" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -3776,10 +3798,10 @@
         <v>373</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3793,10 +3815,10 @@
         <v>374</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3810,13 +3832,13 @@
         <v>375</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H60" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3830,10 +3852,10 @@
         <v>376</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3844,10 +3866,10 @@
         <v>172</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -3861,10 +3883,10 @@
         <v>377</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3878,10 +3900,10 @@
         <v>378</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3895,13 +3917,13 @@
         <v>379</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H65" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3915,13 +3937,13 @@
         <v>380</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H66" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -3935,13 +3957,13 @@
         <v>381</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H67" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3955,10 +3977,10 @@
         <v>382</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -3972,13 +3994,13 @@
         <v>383</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H69" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -3992,10 +4014,10 @@
         <v>384</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -4009,13 +4031,13 @@
         <v>385</v>
       </c>
       <c r="E71" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -4029,10 +4051,10 @@
         <v>386</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -4046,10 +4068,10 @@
         <v>387</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -4063,10 +4085,10 @@
         <v>388</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -4080,10 +4102,10 @@
         <v>389</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -4097,13 +4119,13 @@
         <v>390</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H76" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -4117,13 +4139,13 @@
         <v>391</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H77" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -4137,13 +4159,13 @@
         <v>392</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H78" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -4157,13 +4179,13 @@
         <v>393</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H79" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -4177,10 +4199,10 @@
         <v>394</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -4194,13 +4216,13 @@
         <v>395</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H81" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -4214,13 +4236,13 @@
         <v>396</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H82" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -4234,10 +4256,10 @@
         <v>397</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -4251,13 +4273,13 @@
         <v>398</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H84" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -4271,13 +4293,13 @@
         <v>399</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H85" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -4291,13 +4313,13 @@
         <v>400</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H86" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -4311,13 +4333,13 @@
         <v>401</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H87" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -4331,13 +4353,13 @@
         <v>402</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H88" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -4351,13 +4373,13 @@
         <v>403</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H89" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -4371,10 +4393,10 @@
         <v>404</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -4388,13 +4410,13 @@
         <v>405</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H91" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -4408,13 +4430,13 @@
         <v>406</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H92" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -4428,13 +4450,13 @@
         <v>407</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H93" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -4448,13 +4470,13 @@
         <v>408</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H94" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -4468,13 +4490,13 @@
         <v>409</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H95" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -4488,10 +4510,10 @@
         <v>410</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -4505,10 +4527,10 @@
         <v>411</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -4522,13 +4544,13 @@
         <v>412</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H98" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -4542,13 +4564,13 @@
         <v>413</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H99" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -4562,13 +4584,13 @@
         <v>414</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H100" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -4582,10 +4604,10 @@
         <v>415</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -4599,10 +4621,10 @@
         <v>416</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>62</v>
       </c>
@@ -4616,13 +4638,13 @@
         <v>417</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H103" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -4636,13 +4658,13 @@
         <v>418</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H104" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -4656,10 +4678,10 @@
         <v>419</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>63</v>
       </c>
@@ -4673,13 +4695,13 @@
         <v>420</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H106" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -4693,13 +4715,13 @@
         <v>421</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H107" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -4713,13 +4735,13 @@
         <v>422</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H108" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -4733,13 +4755,13 @@
         <v>423</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H109" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -4753,13 +4775,13 @@
         <v>424</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H110" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>66</v>
       </c>
@@ -4773,13 +4795,13 @@
         <v>425</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H111" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>66</v>
       </c>
@@ -4793,10 +4815,10 @@
         <v>426</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -4810,13 +4832,13 @@
         <v>427</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H113" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -4830,10 +4852,10 @@
         <v>428</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>68</v>
       </c>
@@ -4847,13 +4869,13 @@
         <v>429</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H115" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4867,13 +4889,13 @@
         <v>430</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H116" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -4887,13 +4909,13 @@
         <v>431</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H117" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>69</v>
       </c>
@@ -4907,10 +4929,10 @@
         <v>432</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -4924,10 +4946,10 @@
         <v>433</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -4941,13 +4963,13 @@
         <v>434</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H120" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -4961,10 +4983,10 @@
         <v>435</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -4978,13 +5000,13 @@
         <v>436</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H122" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>73</v>
       </c>
@@ -4998,13 +5020,13 @@
         <v>437</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H123" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>73</v>
       </c>
@@ -5018,10 +5040,10 @@
         <v>438</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
@@ -5035,13 +5057,13 @@
         <v>439</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H125" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -5055,13 +5077,13 @@
         <v>440</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H126" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -5075,13 +5097,13 @@
         <v>441</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H127" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -5095,10 +5117,10 @@
         <v>442</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -5112,10 +5134,10 @@
         <v>443</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -5129,13 +5151,13 @@
         <v>444</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H130" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -5149,13 +5171,13 @@
         <v>445</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H131" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -5169,13 +5191,13 @@
         <v>446</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H132" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -5189,13 +5211,13 @@
         <v>447</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H133" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -5209,10 +5231,10 @@
         <v>448</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>80</v>
       </c>
@@ -5226,13 +5248,13 @@
         <v>449</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H135" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>80</v>
       </c>
@@ -5246,10 +5268,10 @@
         <v>201</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -5263,10 +5285,10 @@
         <v>450</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>77</v>
       </c>
@@ -5280,10 +5302,10 @@
         <v>451</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -5297,10 +5319,10 @@
         <v>452</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>80</v>
       </c>
@@ -5314,10 +5336,10 @@
         <v>453</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -5331,13 +5353,13 @@
         <v>454</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H141" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>82</v>
       </c>
@@ -5351,13 +5373,13 @@
         <v>455</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H142" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>83</v>
       </c>
@@ -5371,13 +5393,13 @@
         <v>456</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H143" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>83</v>
       </c>
@@ -5391,10 +5413,10 @@
         <v>457</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -5408,10 +5430,10 @@
         <v>458</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>85</v>
       </c>
@@ -5425,13 +5447,13 @@
         <v>459</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H146" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -5445,10 +5467,10 @@
         <v>460</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -5462,10 +5484,10 @@
         <v>461</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>85</v>
       </c>
@@ -5479,13 +5501,13 @@
         <v>462</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H149" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -5499,13 +5521,13 @@
         <v>463</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H150" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -5519,10 +5541,10 @@
         <v>464</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -5536,10 +5558,10 @@
         <v>465</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -5553,13 +5575,13 @@
         <v>466</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H153" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>83</v>
       </c>
@@ -5573,10 +5595,10 @@
         <v>467</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>83</v>
       </c>
@@ -5590,13 +5612,13 @@
         <v>468</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H155" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>87</v>
       </c>
@@ -5610,13 +5632,13 @@
         <v>469</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H156" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -5630,13 +5652,13 @@
         <v>470</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H157" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -5650,10 +5672,10 @@
         <v>471</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -5667,13 +5689,13 @@
         <v>472</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H159" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>91</v>
       </c>
@@ -5687,10 +5709,10 @@
         <v>473</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>92</v>
       </c>
@@ -5704,13 +5726,13 @@
         <v>474</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H161" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>92</v>
       </c>
@@ -5724,13 +5746,13 @@
         <v>475</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H162" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>93</v>
       </c>
@@ -5744,13 +5766,13 @@
         <v>476</v>
       </c>
       <c r="E163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>94</v>
       </c>
@@ -5764,13 +5786,13 @@
         <v>476</v>
       </c>
       <c r="E164" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>95</v>
       </c>
@@ -5784,13 +5806,13 @@
         <v>476</v>
       </c>
       <c r="E165" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>96</v>
       </c>
@@ -5804,13 +5826,13 @@
         <v>476</v>
       </c>
       <c r="E166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>97</v>
       </c>
@@ -5824,13 +5846,13 @@
         <v>476</v>
       </c>
       <c r="E167" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>98</v>
       </c>
@@ -5844,13 +5866,13 @@
         <v>476</v>
       </c>
       <c r="E168" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>99</v>
       </c>
@@ -5864,13 +5886,13 @@
         <v>476</v>
       </c>
       <c r="E169" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -5884,13 +5906,13 @@
         <v>476</v>
       </c>
       <c r="E170" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>101</v>
       </c>
@@ -5904,13 +5926,13 @@
         <v>476</v>
       </c>
       <c r="E171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>95</v>
       </c>
@@ -5924,13 +5946,13 @@
         <v>476</v>
       </c>
       <c r="E172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>101</v>
       </c>
@@ -5944,13 +5966,13 @@
         <v>476</v>
       </c>
       <c r="E173" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>102</v>
       </c>
@@ -5964,13 +5986,13 @@
         <v>476</v>
       </c>
       <c r="E174" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>96</v>
       </c>
@@ -5984,13 +6006,13 @@
         <v>476</v>
       </c>
       <c r="E175" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -6004,13 +6026,13 @@
         <v>476</v>
       </c>
       <c r="E176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>103</v>
       </c>
@@ -6024,13 +6046,13 @@
         <v>476</v>
       </c>
       <c r="E177" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -6044,13 +6066,13 @@
         <v>476</v>
       </c>
       <c r="E178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>103</v>
       </c>
@@ -6064,13 +6086,13 @@
         <v>476</v>
       </c>
       <c r="E179" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>103</v>
       </c>
@@ -6084,13 +6106,13 @@
         <v>476</v>
       </c>
       <c r="E180" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>105</v>
       </c>
@@ -6104,13 +6126,13 @@
         <v>476</v>
       </c>
       <c r="E181" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>106</v>
       </c>
@@ -6124,13 +6146,13 @@
         <v>476</v>
       </c>
       <c r="E182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>106</v>
       </c>
@@ -6144,13 +6166,13 @@
         <v>476</v>
       </c>
       <c r="E183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>107</v>
       </c>
@@ -6164,13 +6186,13 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>103</v>
       </c>
@@ -6184,13 +6206,13 @@
         <v>476</v>
       </c>
       <c r="E185" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>108</v>
       </c>
@@ -6204,13 +6226,13 @@
         <v>476</v>
       </c>
       <c r="E186" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>109</v>
       </c>
@@ -6224,13 +6246,13 @@
         <v>476</v>
       </c>
       <c r="E187" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>103</v>
       </c>
@@ -6244,13 +6266,13 @@
         <v>476</v>
       </c>
       <c r="E188" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>110</v>
       </c>
@@ -6264,13 +6286,13 @@
         <v>476</v>
       </c>
       <c r="E189" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>111</v>
       </c>
@@ -6284,13 +6306,13 @@
         <v>476</v>
       </c>
       <c r="E190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -6304,13 +6326,13 @@
         <v>477</v>
       </c>
       <c r="E191" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>113</v>
       </c>
@@ -6324,13 +6346,13 @@
         <v>476</v>
       </c>
       <c r="E192" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>106</v>
       </c>
@@ -6344,13 +6366,13 @@
         <v>476</v>
       </c>
       <c r="E193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>103</v>
       </c>
@@ -6364,13 +6386,13 @@
         <v>476</v>
       </c>
       <c r="E194" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -6384,13 +6406,13 @@
         <v>476</v>
       </c>
       <c r="E195" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>115</v>
       </c>
@@ -6404,13 +6426,13 @@
         <v>477</v>
       </c>
       <c r="E196" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>116</v>
       </c>
@@ -6424,13 +6446,13 @@
         <v>476</v>
       </c>
       <c r="E197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>117</v>
       </c>
@@ -6444,13 +6466,13 @@
         <v>476</v>
       </c>
       <c r="E198" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>109</v>
       </c>
@@ -6464,13 +6486,13 @@
         <v>476</v>
       </c>
       <c r="E199" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>118</v>
       </c>
@@ -6484,13 +6506,13 @@
         <v>476</v>
       </c>
       <c r="E200" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>102</v>
       </c>
@@ -6504,13 +6526,13 @@
         <v>476</v>
       </c>
       <c r="E201" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>119</v>
       </c>
@@ -6524,13 +6546,13 @@
         <v>476</v>
       </c>
       <c r="E202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>120</v>
       </c>
@@ -6544,13 +6566,13 @@
         <v>476</v>
       </c>
       <c r="E203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>121</v>
       </c>
@@ -6564,13 +6586,13 @@
         <v>476</v>
       </c>
       <c r="E204" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>99</v>
       </c>
@@ -6584,13 +6606,13 @@
         <v>476</v>
       </c>
       <c r="E205" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>122</v>
       </c>
@@ -6604,13 +6626,13 @@
         <v>476</v>
       </c>
       <c r="E206" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>97</v>
       </c>
@@ -6624,13 +6646,13 @@
         <v>476</v>
       </c>
       <c r="E207" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>123</v>
       </c>
@@ -6644,13 +6666,13 @@
         <v>476</v>
       </c>
       <c r="E208" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>101</v>
       </c>
@@ -6664,13 +6686,13 @@
         <v>476</v>
       </c>
       <c r="E209" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -6684,13 +6706,13 @@
         <v>476</v>
       </c>
       <c r="E210" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>125</v>
       </c>
@@ -6704,13 +6726,13 @@
         <v>476</v>
       </c>
       <c r="E211" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -6724,13 +6746,13 @@
         <v>476</v>
       </c>
       <c r="E212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>127</v>
       </c>
@@ -6744,13 +6766,13 @@
         <v>476</v>
       </c>
       <c r="E213" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>118</v>
       </c>
@@ -6764,13 +6786,13 @@
         <v>476</v>
       </c>
       <c r="E214" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>128</v>
       </c>
@@ -6784,13 +6806,13 @@
         <v>476</v>
       </c>
       <c r="E215" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>106</v>
       </c>
@@ -6804,13 +6826,13 @@
         <v>476</v>
       </c>
       <c r="E216" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>129</v>
       </c>
@@ -6824,13 +6846,13 @@
         <v>476</v>
       </c>
       <c r="E217" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>119</v>
       </c>
@@ -6844,13 +6866,13 @@
         <v>476</v>
       </c>
       <c r="E218" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>104</v>
       </c>
@@ -6864,13 +6886,13 @@
         <v>476</v>
       </c>
       <c r="E219" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>100</v>
       </c>
@@ -6884,13 +6906,13 @@
         <v>476</v>
       </c>
       <c r="E220" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>100</v>
       </c>
@@ -6904,13 +6926,13 @@
         <v>476</v>
       </c>
       <c r="E221" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>100</v>
       </c>
@@ -6924,13 +6946,13 @@
         <v>476</v>
       </c>
       <c r="E222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -6944,13 +6966,13 @@
         <v>476</v>
       </c>
       <c r="E223" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>131</v>
       </c>
@@ -6964,13 +6986,13 @@
         <v>476</v>
       </c>
       <c r="E224" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>132</v>
       </c>
@@ -6984,13 +7006,13 @@
         <v>476</v>
       </c>
       <c r="E225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -7004,13 +7026,13 @@
         <v>476</v>
       </c>
       <c r="E226" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>95</v>
       </c>
@@ -7024,13 +7046,13 @@
         <v>476</v>
       </c>
       <c r="E227" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>100</v>
       </c>
@@ -7044,13 +7066,13 @@
         <v>476</v>
       </c>
       <c r="E228" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>133</v>
       </c>
@@ -7064,13 +7086,13 @@
         <v>476</v>
       </c>
       <c r="E229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>101</v>
       </c>
@@ -7084,13 +7106,13 @@
         <v>476</v>
       </c>
       <c r="E230" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>98</v>
       </c>
@@ -7104,13 +7126,13 @@
         <v>476</v>
       </c>
       <c r="E231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>130</v>
       </c>
@@ -7124,13 +7146,13 @@
         <v>477</v>
       </c>
       <c r="E232" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>134</v>
       </c>
@@ -7144,13 +7166,13 @@
         <v>477</v>
       </c>
       <c r="E233" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>135</v>
       </c>
@@ -7164,13 +7186,13 @@
         <v>477</v>
       </c>
       <c r="E234" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>128</v>
       </c>
@@ -7184,13 +7206,13 @@
         <v>477</v>
       </c>
       <c r="E235" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>136</v>
       </c>
@@ -7201,16 +7223,16 @@
         <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E236" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>100</v>
       </c>
@@ -7224,13 +7246,13 @@
         <v>477</v>
       </c>
       <c r="E237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>101</v>
       </c>
@@ -7244,13 +7266,13 @@
         <v>476</v>
       </c>
       <c r="E238" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>100</v>
       </c>
@@ -7264,13 +7286,13 @@
         <v>476</v>
       </c>
       <c r="E239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>137</v>
       </c>
@@ -7284,13 +7306,13 @@
         <v>477</v>
       </c>
       <c r="E240" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>104</v>
       </c>
@@ -7304,13 +7326,13 @@
         <v>476</v>
       </c>
       <c r="E241" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>129</v>
       </c>
@@ -7324,13 +7346,13 @@
         <v>477</v>
       </c>
       <c r="E242" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -7344,13 +7366,13 @@
         <v>476</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>104</v>
       </c>
@@ -7364,13 +7386,13 @@
         <v>476</v>
       </c>
       <c r="E244" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>131</v>
       </c>
@@ -7384,13 +7406,13 @@
         <v>476</v>
       </c>
       <c r="E245" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>101</v>
       </c>
@@ -7404,13 +7426,13 @@
         <v>476</v>
       </c>
       <c r="E246" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>139</v>
       </c>
@@ -7424,13 +7446,13 @@
         <v>476</v>
       </c>
       <c r="E247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>140</v>
       </c>
@@ -7444,13 +7466,13 @@
         <v>476</v>
       </c>
       <c r="E248" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>106</v>
       </c>
@@ -7464,13 +7486,13 @@
         <v>476</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>104</v>
       </c>
@@ -7484,13 +7506,13 @@
         <v>476</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>136</v>
       </c>
@@ -7504,13 +7526,13 @@
         <v>476</v>
       </c>
       <c r="E251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>141</v>
       </c>
@@ -7524,13 +7546,13 @@
         <v>476</v>
       </c>
       <c r="E252" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>95</v>
       </c>
@@ -7544,13 +7566,13 @@
         <v>476</v>
       </c>
       <c r="E253" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>100</v>
       </c>
@@ -7564,13 +7586,13 @@
         <v>476</v>
       </c>
       <c r="E254" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>132</v>
       </c>
@@ -7584,13 +7606,13 @@
         <v>477</v>
       </c>
       <c r="E255" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>104</v>
       </c>
@@ -7604,13 +7626,13 @@
         <v>476</v>
       </c>
       <c r="E256" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -7624,13 +7646,13 @@
         <v>476</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>132</v>
       </c>
@@ -7644,13 +7666,13 @@
         <v>477</v>
       </c>
       <c r="E258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>136</v>
       </c>
@@ -7664,13 +7686,13 @@
         <v>477</v>
       </c>
       <c r="E259" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>117</v>
       </c>
@@ -7684,13 +7706,13 @@
         <v>477</v>
       </c>
       <c r="E260" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>115</v>
       </c>
@@ -7704,13 +7726,13 @@
         <v>477</v>
       </c>
       <c r="E261" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>142</v>
       </c>
@@ -7724,13 +7746,13 @@
         <v>477</v>
       </c>
       <c r="E262" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>143</v>
       </c>
@@ -7744,13 +7766,13 @@
         <v>477</v>
       </c>
       <c r="E263" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -7764,13 +7786,13 @@
         <v>476</v>
       </c>
       <c r="E264" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>109</v>
       </c>
@@ -7784,13 +7806,13 @@
         <v>476</v>
       </c>
       <c r="E265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>145</v>
       </c>
@@ -7804,13 +7826,13 @@
         <v>476</v>
       </c>
       <c r="E266" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>135</v>
       </c>
@@ -7824,13 +7846,13 @@
         <v>477</v>
       </c>
       <c r="E267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>146</v>
       </c>
@@ -7844,13 +7866,13 @@
         <v>477</v>
       </c>
       <c r="E268" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>109</v>
       </c>
@@ -7864,13 +7886,13 @@
         <v>476</v>
       </c>
       <c r="E269" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>103</v>
       </c>
@@ -7884,13 +7906,13 @@
         <v>476</v>
       </c>
       <c r="E270" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>132</v>
       </c>
@@ -7904,13 +7926,13 @@
         <v>477</v>
       </c>
       <c r="E271" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>147</v>
       </c>
@@ -7924,285 +7946,285 @@
         <v>476</v>
       </c>
       <c r="E272" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G25" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G29" r:id="rId28"/>
-    <hyperlink ref="G30" r:id="rId29"/>
-    <hyperlink ref="G31" r:id="rId30"/>
-    <hyperlink ref="G32" r:id="rId31"/>
-    <hyperlink ref="G33" r:id="rId32"/>
-    <hyperlink ref="G34" r:id="rId33"/>
-    <hyperlink ref="G35" r:id="rId34"/>
-    <hyperlink ref="G36" r:id="rId35"/>
-    <hyperlink ref="G37" r:id="rId36"/>
-    <hyperlink ref="G38" r:id="rId37"/>
-    <hyperlink ref="G39" r:id="rId38"/>
-    <hyperlink ref="G40" r:id="rId39"/>
-    <hyperlink ref="G41" r:id="rId40"/>
-    <hyperlink ref="G42" r:id="rId41"/>
-    <hyperlink ref="G43" r:id="rId42"/>
-    <hyperlink ref="G44" r:id="rId43"/>
-    <hyperlink ref="G45" r:id="rId44"/>
-    <hyperlink ref="G46" r:id="rId45"/>
-    <hyperlink ref="G47" r:id="rId46"/>
-    <hyperlink ref="G48" r:id="rId47"/>
-    <hyperlink ref="G49" r:id="rId48"/>
-    <hyperlink ref="G50" r:id="rId49"/>
-    <hyperlink ref="G51" r:id="rId50"/>
-    <hyperlink ref="G52" r:id="rId51"/>
-    <hyperlink ref="G53" r:id="rId52"/>
-    <hyperlink ref="G54" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="G56" r:id="rId55"/>
-    <hyperlink ref="G57" r:id="rId56"/>
-    <hyperlink ref="G58" r:id="rId57"/>
-    <hyperlink ref="G59" r:id="rId58"/>
-    <hyperlink ref="G60" r:id="rId59"/>
-    <hyperlink ref="G61" r:id="rId60"/>
-    <hyperlink ref="G62" r:id="rId61"/>
-    <hyperlink ref="G63" r:id="rId62"/>
-    <hyperlink ref="G64" r:id="rId63"/>
-    <hyperlink ref="G65" r:id="rId64"/>
-    <hyperlink ref="G66" r:id="rId65"/>
-    <hyperlink ref="G67" r:id="rId66"/>
-    <hyperlink ref="G68" r:id="rId67"/>
-    <hyperlink ref="G69" r:id="rId68"/>
-    <hyperlink ref="G70" r:id="rId69"/>
-    <hyperlink ref="G71" r:id="rId70"/>
-    <hyperlink ref="G72" r:id="rId71"/>
-    <hyperlink ref="G73" r:id="rId72"/>
-    <hyperlink ref="G74" r:id="rId73"/>
-    <hyperlink ref="G75" r:id="rId74"/>
-    <hyperlink ref="G76" r:id="rId75"/>
-    <hyperlink ref="G77" r:id="rId76"/>
-    <hyperlink ref="G78" r:id="rId77"/>
-    <hyperlink ref="G79" r:id="rId78"/>
-    <hyperlink ref="G80" r:id="rId79"/>
-    <hyperlink ref="G81" r:id="rId80"/>
-    <hyperlink ref="G82" r:id="rId81"/>
-    <hyperlink ref="G83" r:id="rId82"/>
-    <hyperlink ref="G84" r:id="rId83"/>
-    <hyperlink ref="G85" r:id="rId84"/>
-    <hyperlink ref="G86" r:id="rId85"/>
-    <hyperlink ref="G87" r:id="rId86"/>
-    <hyperlink ref="G88" r:id="rId87"/>
-    <hyperlink ref="G89" r:id="rId88"/>
-    <hyperlink ref="G90" r:id="rId89"/>
-    <hyperlink ref="G91" r:id="rId90"/>
-    <hyperlink ref="G92" r:id="rId91"/>
-    <hyperlink ref="G93" r:id="rId92"/>
-    <hyperlink ref="G94" r:id="rId93"/>
-    <hyperlink ref="G95" r:id="rId94"/>
-    <hyperlink ref="G96" r:id="rId95"/>
-    <hyperlink ref="G97" r:id="rId96"/>
-    <hyperlink ref="G98" r:id="rId97"/>
-    <hyperlink ref="G99" r:id="rId98"/>
-    <hyperlink ref="G100" r:id="rId99"/>
-    <hyperlink ref="G101" r:id="rId100"/>
-    <hyperlink ref="G102" r:id="rId101"/>
-    <hyperlink ref="G103" r:id="rId102"/>
-    <hyperlink ref="G104" r:id="rId103"/>
-    <hyperlink ref="G105" r:id="rId104"/>
-    <hyperlink ref="G106" r:id="rId105"/>
-    <hyperlink ref="G107" r:id="rId106"/>
-    <hyperlink ref="G108" r:id="rId107"/>
-    <hyperlink ref="G109" r:id="rId108"/>
-    <hyperlink ref="G110" r:id="rId109"/>
-    <hyperlink ref="G111" r:id="rId110"/>
-    <hyperlink ref="G112" r:id="rId111"/>
-    <hyperlink ref="G113" r:id="rId112"/>
-    <hyperlink ref="G114" r:id="rId113"/>
-    <hyperlink ref="G115" r:id="rId114"/>
-    <hyperlink ref="G116" r:id="rId115"/>
-    <hyperlink ref="G117" r:id="rId116"/>
-    <hyperlink ref="G118" r:id="rId117"/>
-    <hyperlink ref="G119" r:id="rId118"/>
-    <hyperlink ref="G120" r:id="rId119"/>
-    <hyperlink ref="G121" r:id="rId120"/>
-    <hyperlink ref="G122" r:id="rId121"/>
-    <hyperlink ref="G123" r:id="rId122"/>
-    <hyperlink ref="G124" r:id="rId123"/>
-    <hyperlink ref="G125" r:id="rId124"/>
-    <hyperlink ref="G126" r:id="rId125"/>
-    <hyperlink ref="G127" r:id="rId126"/>
-    <hyperlink ref="G128" r:id="rId127"/>
-    <hyperlink ref="G129" r:id="rId128"/>
-    <hyperlink ref="G130" r:id="rId129"/>
-    <hyperlink ref="G131" r:id="rId130"/>
-    <hyperlink ref="G132" r:id="rId131"/>
-    <hyperlink ref="G133" r:id="rId132"/>
-    <hyperlink ref="G134" r:id="rId133"/>
-    <hyperlink ref="G135" r:id="rId134"/>
-    <hyperlink ref="G136" r:id="rId135"/>
-    <hyperlink ref="G137" r:id="rId136"/>
-    <hyperlink ref="G138" r:id="rId137"/>
-    <hyperlink ref="G139" r:id="rId138"/>
-    <hyperlink ref="G140" r:id="rId139"/>
-    <hyperlink ref="G141" r:id="rId140"/>
-    <hyperlink ref="G142" r:id="rId141"/>
-    <hyperlink ref="G143" r:id="rId142"/>
-    <hyperlink ref="G144" r:id="rId143"/>
-    <hyperlink ref="G145" r:id="rId144"/>
-    <hyperlink ref="G146" r:id="rId145"/>
-    <hyperlink ref="G147" r:id="rId146"/>
-    <hyperlink ref="G148" r:id="rId147"/>
-    <hyperlink ref="G149" r:id="rId148"/>
-    <hyperlink ref="G150" r:id="rId149"/>
-    <hyperlink ref="G151" r:id="rId150"/>
-    <hyperlink ref="G152" r:id="rId151"/>
-    <hyperlink ref="G153" r:id="rId152"/>
-    <hyperlink ref="G154" r:id="rId153"/>
-    <hyperlink ref="G155" r:id="rId154"/>
-    <hyperlink ref="G156" r:id="rId155"/>
-    <hyperlink ref="G157" r:id="rId156"/>
-    <hyperlink ref="G158" r:id="rId157"/>
-    <hyperlink ref="G159" r:id="rId158"/>
-    <hyperlink ref="G160" r:id="rId159"/>
-    <hyperlink ref="G161" r:id="rId160"/>
-    <hyperlink ref="G162" r:id="rId161"/>
-    <hyperlink ref="G163" r:id="rId162"/>
-    <hyperlink ref="G164" r:id="rId163"/>
-    <hyperlink ref="G165" r:id="rId164"/>
-    <hyperlink ref="G166" r:id="rId165"/>
-    <hyperlink ref="G167" r:id="rId166"/>
-    <hyperlink ref="G168" r:id="rId167"/>
-    <hyperlink ref="G169" r:id="rId168"/>
-    <hyperlink ref="G170" r:id="rId169"/>
-    <hyperlink ref="G171" r:id="rId170"/>
-    <hyperlink ref="G172" r:id="rId171"/>
-    <hyperlink ref="G173" r:id="rId172"/>
-    <hyperlink ref="G174" r:id="rId173"/>
-    <hyperlink ref="G175" r:id="rId174"/>
-    <hyperlink ref="G176" r:id="rId175"/>
-    <hyperlink ref="G177" r:id="rId176"/>
-    <hyperlink ref="G178" r:id="rId177"/>
-    <hyperlink ref="G179" r:id="rId178"/>
-    <hyperlink ref="G180" r:id="rId179"/>
-    <hyperlink ref="G181" r:id="rId180"/>
-    <hyperlink ref="G182" r:id="rId181"/>
-    <hyperlink ref="G183" r:id="rId182"/>
-    <hyperlink ref="G184" r:id="rId183"/>
-    <hyperlink ref="G185" r:id="rId184"/>
-    <hyperlink ref="G186" r:id="rId185"/>
-    <hyperlink ref="G187" r:id="rId186"/>
-    <hyperlink ref="G188" r:id="rId187"/>
-    <hyperlink ref="G189" r:id="rId188"/>
-    <hyperlink ref="G190" r:id="rId189"/>
-    <hyperlink ref="G191" r:id="rId190"/>
-    <hyperlink ref="G192" r:id="rId191"/>
-    <hyperlink ref="G193" r:id="rId192"/>
-    <hyperlink ref="G194" r:id="rId193"/>
-    <hyperlink ref="G195" r:id="rId194"/>
-    <hyperlink ref="G196" r:id="rId195"/>
-    <hyperlink ref="G197" r:id="rId196"/>
-    <hyperlink ref="G198" r:id="rId197"/>
-    <hyperlink ref="G199" r:id="rId198"/>
-    <hyperlink ref="G200" r:id="rId199"/>
-    <hyperlink ref="G201" r:id="rId200"/>
-    <hyperlink ref="G202" r:id="rId201"/>
-    <hyperlink ref="G203" r:id="rId202"/>
-    <hyperlink ref="G204" r:id="rId203"/>
-    <hyperlink ref="G205" r:id="rId204"/>
-    <hyperlink ref="G206" r:id="rId205"/>
-    <hyperlink ref="G207" r:id="rId206"/>
-    <hyperlink ref="G208" r:id="rId207"/>
-    <hyperlink ref="G209" r:id="rId208"/>
-    <hyperlink ref="G210" r:id="rId209"/>
-    <hyperlink ref="G211" r:id="rId210"/>
-    <hyperlink ref="G212" r:id="rId211"/>
-    <hyperlink ref="G213" r:id="rId212"/>
-    <hyperlink ref="G214" r:id="rId213"/>
-    <hyperlink ref="G215" r:id="rId214"/>
-    <hyperlink ref="G216" r:id="rId215"/>
-    <hyperlink ref="G217" r:id="rId216"/>
-    <hyperlink ref="G218" r:id="rId217"/>
-    <hyperlink ref="G219" r:id="rId218"/>
-    <hyperlink ref="G220" r:id="rId219"/>
-    <hyperlink ref="G221" r:id="rId220"/>
-    <hyperlink ref="G222" r:id="rId221"/>
-    <hyperlink ref="G223" r:id="rId222"/>
-    <hyperlink ref="G224" r:id="rId223"/>
-    <hyperlink ref="G225" r:id="rId224"/>
-    <hyperlink ref="G226" r:id="rId225"/>
-    <hyperlink ref="G227" r:id="rId226"/>
-    <hyperlink ref="G228" r:id="rId227"/>
-    <hyperlink ref="G229" r:id="rId228"/>
-    <hyperlink ref="G230" r:id="rId229"/>
-    <hyperlink ref="G231" r:id="rId230"/>
-    <hyperlink ref="G232" r:id="rId231"/>
-    <hyperlink ref="G233" r:id="rId232"/>
-    <hyperlink ref="G234" r:id="rId233"/>
-    <hyperlink ref="G235" r:id="rId234"/>
-    <hyperlink ref="G236" r:id="rId235"/>
-    <hyperlink ref="G237" r:id="rId236"/>
-    <hyperlink ref="G238" r:id="rId237"/>
-    <hyperlink ref="G239" r:id="rId238"/>
-    <hyperlink ref="G240" r:id="rId239"/>
-    <hyperlink ref="G241" r:id="rId240"/>
-    <hyperlink ref="G242" r:id="rId241"/>
-    <hyperlink ref="G243" r:id="rId242"/>
-    <hyperlink ref="G244" r:id="rId243"/>
-    <hyperlink ref="G245" r:id="rId244"/>
-    <hyperlink ref="G246" r:id="rId245"/>
-    <hyperlink ref="G247" r:id="rId246"/>
-    <hyperlink ref="G248" r:id="rId247"/>
-    <hyperlink ref="G249" r:id="rId248"/>
-    <hyperlink ref="G250" r:id="rId249"/>
-    <hyperlink ref="G251" r:id="rId250"/>
-    <hyperlink ref="G252" r:id="rId251"/>
-    <hyperlink ref="G253" r:id="rId252"/>
-    <hyperlink ref="G254" r:id="rId253"/>
-    <hyperlink ref="G255" r:id="rId254"/>
-    <hyperlink ref="G256" r:id="rId255"/>
-    <hyperlink ref="G257" r:id="rId256"/>
-    <hyperlink ref="G258" r:id="rId257"/>
-    <hyperlink ref="G259" r:id="rId258"/>
-    <hyperlink ref="G260" r:id="rId259"/>
-    <hyperlink ref="G261" r:id="rId260"/>
-    <hyperlink ref="G262" r:id="rId261"/>
-    <hyperlink ref="G263" r:id="rId262"/>
-    <hyperlink ref="G264" r:id="rId263"/>
-    <hyperlink ref="G265" r:id="rId264"/>
-    <hyperlink ref="G266" r:id="rId265"/>
-    <hyperlink ref="G267" r:id="rId266"/>
-    <hyperlink ref="G268" r:id="rId267"/>
-    <hyperlink ref="G269" r:id="rId268"/>
-    <hyperlink ref="G270" r:id="rId269"/>
-    <hyperlink ref="G271" r:id="rId270"/>
-    <hyperlink ref="G272" r:id="rId271"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="G151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="G162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="G171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="G172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="G179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="G180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="G182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="G186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="G188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="G190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="G192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="G194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="G196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="G197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="G201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="G203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="G206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="G207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="G210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="G211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="G212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="G213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="G214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="G215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="G216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="G217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="G218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="G219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="G220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="G221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="G222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="G223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="G224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="G225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="G226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="G227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="G228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="G229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="G230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="G231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="G232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="G233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="G234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="G235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="G236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="G237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="G238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="G239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="G240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="G241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="G242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="G243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="G244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="G245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="G246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="G247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="G248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="G249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="G250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="G251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="G252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="G253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="G254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="G255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="G256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="G257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="G258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="G259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="G260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="G261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="G262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="G263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="G264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="G265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="G266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="G267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="G268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="G269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="G270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="G271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="G272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
